--- a/Surveys/Response MatrixAGS.xlsx
+++ b/Surveys/Response MatrixAGS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\2015-09 Joint Development\Surveys\NATO AGS\RESPONSES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Development\JointDevelopment\Surveys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="101">
   <si>
     <t>INTEGRATION: Government and Industry</t>
   </si>
@@ -327,109 +327,7 @@
     <t>ags</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Working-Together Integration</t>
-  </si>
-  <si>
-    <t>Decision-Making Intergration</t>
-  </si>
-  <si>
-    <t>Regular Consultation on Decisions</t>
-  </si>
-  <si>
-    <t>Complete Integration with Equal Authority</t>
-  </si>
-  <si>
-    <t>Regular Consultation on Decisions Between Industries</t>
-  </si>
-  <si>
-    <t>Always Influenced</t>
-  </si>
-  <si>
-    <t>Depended More than Occasionally</t>
-  </si>
-  <si>
-    <t>Always Depended</t>
-  </si>
-  <si>
-    <t>Often Depended</t>
-  </si>
-  <si>
-    <t>Explicit and Strong Measures</t>
-  </si>
-  <si>
-    <t>Minor Incentives to Prevent Defection</t>
-  </si>
-  <si>
-    <t>Measures that can be Easily Incurred</t>
-  </si>
-  <si>
-    <t>Measures That Can Be Easily Incurred</t>
-  </si>
-  <si>
-    <t>Changes Only Under Limited Circumstances with High Hurdles</t>
-  </si>
-  <si>
-    <t>Changes Under Multiple Circumstances but with High Hurdles</t>
-  </si>
-  <si>
-    <t>Changes Were Easy But In Limited Cases</t>
-  </si>
-  <si>
-    <t>Changes Were Easy Under Multiple Circumstances</t>
-  </si>
-  <si>
-    <t>Identical Operational Requirements</t>
-  </si>
-  <si>
-    <t>Similar Operational Requirements</t>
-  </si>
-  <si>
-    <t>Compatible in Strategic Needs and Slight Overlap in Operational Needs</t>
-  </si>
-  <si>
-    <t>Equally Based on Demand for Leading-Edge Tech as Other Demands</t>
-  </si>
-  <si>
-    <t>Mostly Based on Demand for Leading-Edge Tech</t>
-  </si>
-  <si>
-    <t>Slightly Based on Demand for Leading-Edge Tech</t>
-  </si>
-  <si>
-    <t>Moderately Based on Demand for Economies of Scale</t>
-  </si>
-  <si>
-    <t>Equally Based on Demand for Economies of Scale</t>
-  </si>
-  <si>
-    <t>Mostly Based on Demand for Economies of Scale</t>
-  </si>
-  <si>
-    <t>Based on Comparative Advantege More Than Occasionally</t>
-  </si>
-  <si>
-    <t>Often Took Into Account Comparative Advantage</t>
-  </si>
-  <si>
-    <t>Based on Comparative Advantage Occasionally</t>
-  </si>
-  <si>
-    <t>Often Takes Into Account Political or Industrial-Base Goals</t>
-  </si>
-  <si>
-    <t>Based on Political or Industrial-Base Goals More Than Occasionally</t>
-  </si>
-  <si>
-    <t>Always Based On Political or Industrial-Base Goals</t>
-  </si>
-  <si>
-    <t>Decision-Making Integration</t>
-  </si>
-  <si>
-    <t>Often Influenced Decision Making</t>
+    <t>StakeholderPart</t>
   </si>
 </sst>
 </file>
@@ -2193,12 +2091,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C47:D47"/>
     <mergeCell ref="C141:D141"/>
     <mergeCell ref="B154:B155"/>
     <mergeCell ref="C70:D70"/>
@@ -2207,6 +2099,12 @@
     <mergeCell ref="C105:D105"/>
     <mergeCell ref="C117:D117"/>
     <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2217,17 +2115,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="32" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="32"/>
-    <col min="4" max="4" width="65.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="32"/>
+    <col min="3" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2237,11 +2133,11 @@
       <c r="B1" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>94</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>100</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>95</v>
@@ -2254,11 +2150,8 @@
       <c r="B2" s="32">
         <v>1</v>
       </c>
-      <c r="C2" s="32">
-        <v>5</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>101</v>
+      <c r="D2" s="32">
+        <v>5</v>
       </c>
       <c r="E2" s="32">
         <v>1</v>
@@ -2271,11 +2164,8 @@
       <c r="B3" s="32">
         <v>2</v>
       </c>
-      <c r="C3" s="32">
-        <v>4</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>102</v>
+      <c r="D3" s="32">
+        <v>4</v>
       </c>
       <c r="E3" s="32">
         <v>1</v>
@@ -2288,11 +2178,8 @@
       <c r="B4" s="32">
         <v>3</v>
       </c>
-      <c r="C4" s="32">
-        <v>5</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>101</v>
+      <c r="D4" s="32">
+        <v>5</v>
       </c>
       <c r="E4" s="32">
         <v>1</v>
@@ -2305,11 +2192,8 @@
       <c r="B5" s="32">
         <v>4</v>
       </c>
-      <c r="C5" s="32">
+      <c r="D5" s="32">
         <v>3</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>103</v>
       </c>
       <c r="E5" s="32">
         <v>1</v>
@@ -2322,11 +2206,8 @@
       <c r="B6" s="32">
         <v>5</v>
       </c>
-      <c r="C6" s="32">
+      <c r="D6" s="32">
         <v>3</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>103</v>
       </c>
       <c r="E6" s="32">
         <v>1</v>
@@ -2339,11 +2220,8 @@
       <c r="B7" s="32">
         <v>1</v>
       </c>
-      <c r="C7" s="32">
+      <c r="D7" s="32">
         <v>6</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>104</v>
       </c>
       <c r="E7" s="32">
         <v>1</v>
@@ -2356,11 +2234,8 @@
       <c r="B8" s="32">
         <v>2</v>
       </c>
-      <c r="C8" s="32">
-        <v>5</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>101</v>
+      <c r="D8" s="32">
+        <v>5</v>
       </c>
       <c r="E8" s="32">
         <v>1</v>
@@ -2373,11 +2248,8 @@
       <c r="B9" s="32">
         <v>3</v>
       </c>
-      <c r="C9" s="32">
-        <v>4</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>133</v>
+      <c r="D9" s="32">
+        <v>4</v>
       </c>
       <c r="E9" s="32">
         <v>1</v>
@@ -2390,11 +2262,8 @@
       <c r="B10" s="32">
         <v>4</v>
       </c>
-      <c r="C10" s="32">
-        <v>5</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>101</v>
+      <c r="D10" s="32">
+        <v>5</v>
       </c>
       <c r="E10" s="32">
         <v>1</v>
@@ -2407,11 +2276,8 @@
       <c r="B11" s="32">
         <v>5</v>
       </c>
-      <c r="C11" s="32">
+      <c r="D11" s="32">
         <v>6</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>104</v>
       </c>
       <c r="E11" s="32">
         <v>1</v>
@@ -2424,11 +2290,8 @@
       <c r="B12" s="32">
         <v>1</v>
       </c>
-      <c r="C12" s="32">
-        <v>5</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>101</v>
+      <c r="D12" s="32">
+        <v>5</v>
       </c>
       <c r="E12" s="32">
         <v>1</v>
@@ -2441,11 +2304,8 @@
       <c r="B13" s="32">
         <v>2</v>
       </c>
-      <c r="C13" s="32">
-        <v>4</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>102</v>
+      <c r="D13" s="32">
+        <v>4</v>
       </c>
       <c r="E13" s="32">
         <v>1</v>
@@ -2458,11 +2318,8 @@
       <c r="B14" s="32">
         <v>3</v>
       </c>
-      <c r="C14" s="32">
-        <v>5</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>101</v>
+      <c r="D14" s="32">
+        <v>5</v>
       </c>
       <c r="E14" s="32">
         <v>1</v>
@@ -2475,11 +2332,8 @@
       <c r="B15" s="32">
         <v>4</v>
       </c>
-      <c r="C15" s="32">
+      <c r="D15" s="32">
         <v>3</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>105</v>
       </c>
       <c r="E15" s="32">
         <v>0.5</v>
@@ -2492,11 +2346,8 @@
       <c r="B16" s="32">
         <v>4</v>
       </c>
-      <c r="C16" s="32">
-        <v>4</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>102</v>
+      <c r="D16" s="32">
+        <v>4</v>
       </c>
       <c r="E16" s="32">
         <v>0.5</v>
@@ -2509,11 +2360,8 @@
       <c r="B17" s="32">
         <v>5</v>
       </c>
-      <c r="C17" s="32">
+      <c r="D17" s="32">
         <v>3</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>105</v>
       </c>
       <c r="E17" s="32">
         <v>1</v>
@@ -2526,11 +2374,8 @@
       <c r="B18" s="32">
         <v>1</v>
       </c>
-      <c r="C18" s="32">
+      <c r="D18" s="32">
         <v>6</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>106</v>
       </c>
       <c r="E18" s="32">
         <v>1</v>
@@ -2543,11 +2388,8 @@
       <c r="B19" s="32">
         <v>2</v>
       </c>
-      <c r="C19" s="32">
+      <c r="D19" s="32">
         <v>6</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>106</v>
       </c>
       <c r="E19" s="32">
         <v>1</v>
@@ -2560,11 +2402,8 @@
       <c r="B20" s="32">
         <v>3</v>
       </c>
-      <c r="C20" s="32">
+      <c r="D20" s="32">
         <v>6</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>106</v>
       </c>
       <c r="E20" s="32">
         <v>1</v>
@@ -2577,11 +2416,8 @@
       <c r="B21" s="32">
         <v>4</v>
       </c>
-      <c r="C21" s="32">
+      <c r="D21" s="32">
         <v>6</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>106</v>
       </c>
       <c r="E21" s="32">
         <v>1</v>
@@ -2594,11 +2430,8 @@
       <c r="B22" s="32">
         <v>5</v>
       </c>
-      <c r="C22" s="32">
-        <v>5</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>134</v>
+      <c r="D22" s="32">
+        <v>5</v>
       </c>
       <c r="E22" s="32">
         <v>1</v>
@@ -2611,11 +2444,8 @@
       <c r="B23" s="32">
         <v>1</v>
       </c>
-      <c r="C23" s="32">
-        <v>4</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>107</v>
+      <c r="D23" s="32">
+        <v>4</v>
       </c>
       <c r="E23" s="32">
         <v>1</v>
@@ -2628,11 +2458,8 @@
       <c r="B24" s="32">
         <v>2</v>
       </c>
-      <c r="C24" s="32">
-        <v>4</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>107</v>
+      <c r="D24" s="32">
+        <v>4</v>
       </c>
       <c r="E24" s="32">
         <v>1</v>
@@ -2645,11 +2472,8 @@
       <c r="B25" s="32">
         <v>3</v>
       </c>
-      <c r="C25" s="32">
+      <c r="D25" s="32">
         <v>6</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>108</v>
       </c>
       <c r="E25" s="32">
         <v>1</v>
@@ -2662,11 +2486,8 @@
       <c r="B26" s="32">
         <v>4</v>
       </c>
-      <c r="C26" s="32">
-        <v>5</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>109</v>
+      <c r="D26" s="32">
+        <v>5</v>
       </c>
       <c r="E26" s="32">
         <v>1</v>
@@ -2679,11 +2500,8 @@
       <c r="B27" s="32">
         <v>5</v>
       </c>
-      <c r="C27" s="32">
-        <v>5</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>109</v>
+      <c r="D27" s="32">
+        <v>5</v>
       </c>
       <c r="E27" s="32">
         <v>1</v>
@@ -2696,11 +2514,8 @@
       <c r="B28" s="32">
         <v>1</v>
       </c>
-      <c r="C28" s="32">
+      <c r="D28" s="32">
         <v>6</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>108</v>
       </c>
       <c r="E28" s="32">
         <v>1</v>
@@ -2713,11 +2528,8 @@
       <c r="B29" s="32">
         <v>2</v>
       </c>
-      <c r="C29" s="32">
+      <c r="D29" s="32">
         <v>6</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>108</v>
       </c>
       <c r="E29" s="32">
         <v>1</v>
@@ -2730,11 +2542,8 @@
       <c r="B30" s="32">
         <v>3</v>
       </c>
-      <c r="C30" s="32">
+      <c r="D30" s="32">
         <v>6</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>108</v>
       </c>
       <c r="E30" s="32">
         <v>1</v>
@@ -2747,11 +2556,8 @@
       <c r="B31" s="32">
         <v>4</v>
       </c>
-      <c r="C31" s="32">
-        <v>5</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>109</v>
+      <c r="D31" s="32">
+        <v>5</v>
       </c>
       <c r="E31" s="32">
         <v>1</v>
@@ -2764,11 +2570,8 @@
       <c r="B32" s="32">
         <v>5</v>
       </c>
-      <c r="C32" s="32">
-        <v>5</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>109</v>
+      <c r="D32" s="32">
+        <v>5</v>
       </c>
       <c r="E32" s="32">
         <v>1</v>
@@ -2781,11 +2584,8 @@
       <c r="B33" s="32">
         <v>1</v>
       </c>
-      <c r="C33" s="32">
+      <c r="D33" s="32">
         <v>6</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>110</v>
       </c>
       <c r="E33" s="32">
         <v>1</v>
@@ -2798,11 +2598,8 @@
       <c r="B34" s="32">
         <v>2</v>
       </c>
-      <c r="C34" s="32">
+      <c r="D34" s="32">
         <v>3</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>111</v>
       </c>
       <c r="E34" s="32">
         <v>1</v>
@@ -2815,11 +2612,8 @@
       <c r="B35" s="32">
         <v>3</v>
       </c>
-      <c r="C35" s="32">
+      <c r="D35" s="32">
         <v>6</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>110</v>
       </c>
       <c r="E35" s="32">
         <v>1</v>
@@ -2832,11 +2626,8 @@
       <c r="B36" s="32">
         <v>4</v>
       </c>
-      <c r="C36" s="32">
-        <v>4</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>112</v>
+      <c r="D36" s="32">
+        <v>4</v>
       </c>
       <c r="E36" s="32">
         <v>1</v>
@@ -2849,11 +2640,8 @@
       <c r="B37" s="32">
         <v>5</v>
       </c>
-      <c r="C37" s="32">
+      <c r="D37" s="32">
         <v>3</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>111</v>
       </c>
       <c r="E37" s="32">
         <v>0.5</v>
@@ -2866,11 +2654,8 @@
       <c r="B38" s="32">
         <v>5</v>
       </c>
-      <c r="C38" s="32">
-        <v>4</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>113</v>
+      <c r="D38" s="32">
+        <v>4</v>
       </c>
       <c r="E38" s="32">
         <v>0.5</v>
@@ -2883,11 +2668,8 @@
       <c r="B39" s="32">
         <v>1</v>
       </c>
-      <c r="C39" s="32">
+      <c r="D39" s="32">
         <v>2</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>114</v>
       </c>
       <c r="E39" s="32">
         <v>0.5</v>
@@ -2900,11 +2682,8 @@
       <c r="B40" s="32">
         <v>1</v>
       </c>
-      <c r="C40" s="32">
+      <c r="D40" s="32">
         <v>3</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>115</v>
       </c>
       <c r="E40" s="32">
         <v>0.5</v>
@@ -2917,11 +2696,8 @@
       <c r="B41" s="32">
         <v>2</v>
       </c>
-      <c r="C41" s="32">
-        <v>4</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>116</v>
+      <c r="D41" s="32">
+        <v>4</v>
       </c>
       <c r="E41" s="32">
         <v>1</v>
@@ -2934,11 +2710,8 @@
       <c r="B42" s="32">
         <v>3</v>
       </c>
-      <c r="C42" s="32">
+      <c r="D42" s="32">
         <v>3</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>115</v>
       </c>
       <c r="E42" s="32">
         <v>1</v>
@@ -2951,11 +2724,8 @@
       <c r="B43" s="32">
         <v>4</v>
       </c>
-      <c r="C43" s="32">
-        <v>5</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>117</v>
+      <c r="D43" s="32">
+        <v>5</v>
       </c>
       <c r="E43" s="32">
         <v>1</v>
@@ -2968,11 +2738,8 @@
       <c r="B44" s="32">
         <v>5</v>
       </c>
-      <c r="C44" s="32">
+      <c r="D44" s="32">
         <v>3</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>115</v>
       </c>
       <c r="E44" s="32">
         <v>1</v>
@@ -2985,11 +2752,8 @@
       <c r="B45" s="32">
         <v>1</v>
       </c>
-      <c r="C45" s="32">
+      <c r="D45" s="32">
         <v>6</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>118</v>
       </c>
       <c r="E45" s="32">
         <v>1</v>
@@ -3002,11 +2766,8 @@
       <c r="B46" s="32">
         <v>2</v>
       </c>
-      <c r="C46" s="32">
-        <v>5</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>119</v>
+      <c r="D46" s="32">
+        <v>5</v>
       </c>
       <c r="E46" s="32">
         <v>1</v>
@@ -3019,11 +2780,8 @@
       <c r="B47" s="32">
         <v>3</v>
       </c>
-      <c r="C47" s="32">
-        <v>5</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>119</v>
+      <c r="D47" s="32">
+        <v>5</v>
       </c>
       <c r="E47" s="32">
         <v>1</v>
@@ -3036,11 +2794,8 @@
       <c r="B48" s="32">
         <v>4</v>
       </c>
-      <c r="C48" s="32">
-        <v>5</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>119</v>
+      <c r="D48" s="32">
+        <v>5</v>
       </c>
       <c r="E48" s="32">
         <v>1</v>
@@ -3053,11 +2808,8 @@
       <c r="B49" s="32">
         <v>5</v>
       </c>
-      <c r="C49" s="32">
-        <v>4</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>120</v>
+      <c r="D49" s="32">
+        <v>4</v>
       </c>
       <c r="E49" s="32">
         <v>1</v>
@@ -3070,11 +2822,8 @@
       <c r="B50" s="32">
         <v>1</v>
       </c>
-      <c r="C50" s="32">
-        <v>4</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>121</v>
+      <c r="D50" s="32">
+        <v>4</v>
       </c>
       <c r="E50" s="32">
         <v>1</v>
@@ -3087,11 +2836,8 @@
       <c r="B51" s="32">
         <v>2</v>
       </c>
-      <c r="C51" s="32">
-        <v>5</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>122</v>
+      <c r="D51" s="32">
+        <v>5</v>
       </c>
       <c r="E51" s="32">
         <v>1</v>
@@ -3104,11 +2850,8 @@
       <c r="B52" s="32">
         <v>3</v>
       </c>
-      <c r="C52" s="32">
-        <v>4</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>121</v>
+      <c r="D52" s="32">
+        <v>4</v>
       </c>
       <c r="E52" s="32">
         <v>1</v>
@@ -3121,11 +2864,8 @@
       <c r="B53" s="32">
         <v>4</v>
       </c>
-      <c r="C53" s="32">
-        <v>5</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>122</v>
+      <c r="D53" s="32">
+        <v>5</v>
       </c>
       <c r="E53" s="32">
         <v>1</v>
@@ -3138,11 +2878,8 @@
       <c r="B54" s="32">
         <v>5</v>
       </c>
-      <c r="C54" s="32">
+      <c r="D54" s="32">
         <v>2</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>123</v>
       </c>
       <c r="E54" s="32">
         <v>1</v>
@@ -3155,11 +2892,8 @@
       <c r="B55" s="32">
         <v>1</v>
       </c>
-      <c r="C55" s="32">
+      <c r="D55" s="32">
         <v>3</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>124</v>
       </c>
       <c r="E55" s="32">
         <v>1</v>
@@ -3172,11 +2906,8 @@
       <c r="B56" s="32">
         <v>2</v>
       </c>
-      <c r="C56" s="32">
-        <v>4</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>125</v>
+      <c r="D56" s="32">
+        <v>4</v>
       </c>
       <c r="E56" s="32">
         <v>1</v>
@@ -3189,11 +2920,8 @@
       <c r="B57" s="32">
         <v>3</v>
       </c>
-      <c r="C57" s="32">
+      <c r="D57" s="32">
         <v>3</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>124</v>
       </c>
       <c r="E57" s="32">
         <v>1</v>
@@ -3206,11 +2934,8 @@
       <c r="B58" s="32">
         <v>4</v>
       </c>
-      <c r="C58" s="32">
+      <c r="D58" s="32">
         <v>3</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>124</v>
       </c>
       <c r="E58" s="32">
         <v>1</v>
@@ -3223,11 +2948,8 @@
       <c r="B59" s="32">
         <v>5</v>
       </c>
-      <c r="C59" s="32">
-        <v>5</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>126</v>
+      <c r="D59" s="32">
+        <v>5</v>
       </c>
       <c r="E59" s="32">
         <v>1</v>
@@ -3240,11 +2962,8 @@
       <c r="B60" s="32">
         <v>1</v>
       </c>
-      <c r="C60" s="32">
-        <v>4</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>127</v>
+      <c r="D60" s="32">
+        <v>4</v>
       </c>
       <c r="E60" s="32">
         <v>1</v>
@@ -3257,11 +2976,8 @@
       <c r="B61" s="32">
         <v>2</v>
       </c>
-      <c r="C61" s="32">
-        <v>4</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>127</v>
+      <c r="D61" s="32">
+        <v>4</v>
       </c>
       <c r="E61" s="32">
         <v>1</v>
@@ -3274,11 +2990,8 @@
       <c r="B62" s="32">
         <v>3</v>
       </c>
-      <c r="C62" s="32">
+      <c r="D62" s="32">
         <v>3</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>129</v>
       </c>
       <c r="E62" s="32">
         <v>1</v>
@@ -3291,11 +3004,8 @@
       <c r="B63" s="32">
         <v>4</v>
       </c>
-      <c r="C63" s="32">
-        <v>5</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>128</v>
+      <c r="D63" s="32">
+        <v>5</v>
       </c>
       <c r="E63" s="32">
         <v>1</v>
@@ -3308,11 +3018,8 @@
       <c r="B64" s="32">
         <v>5</v>
       </c>
-      <c r="C64" s="32">
+      <c r="D64" s="32">
         <v>3</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>129</v>
       </c>
       <c r="E64" s="32">
         <v>1</v>
@@ -3325,11 +3032,8 @@
       <c r="B65" s="32">
         <v>1</v>
       </c>
-      <c r="C65" s="32">
-        <v>5</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>130</v>
+      <c r="D65" s="32">
+        <v>5</v>
       </c>
       <c r="E65" s="32">
         <v>1</v>
@@ -3342,11 +3046,8 @@
       <c r="B66" s="32">
         <v>2</v>
       </c>
-      <c r="C66" s="32">
-        <v>4</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>131</v>
+      <c r="D66" s="32">
+        <v>4</v>
       </c>
       <c r="E66" s="32">
         <v>1</v>
@@ -3359,11 +3060,8 @@
       <c r="B67" s="32">
         <v>3</v>
       </c>
-      <c r="C67" s="32">
+      <c r="D67" s="32">
         <v>6</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>132</v>
       </c>
       <c r="E67" s="32">
         <v>1</v>
@@ -3376,11 +3074,8 @@
       <c r="B68" s="32">
         <v>4</v>
       </c>
-      <c r="C68" s="32">
-        <v>4</v>
-      </c>
-      <c r="D68" s="32" t="s">
-        <v>131</v>
+      <c r="D68" s="32">
+        <v>4</v>
       </c>
       <c r="E68" s="32">
         <v>1</v>
@@ -3393,11 +3088,8 @@
       <c r="B69" s="32">
         <v>5</v>
       </c>
-      <c r="C69" s="32">
-        <v>5</v>
-      </c>
-      <c r="D69" s="32" t="s">
-        <v>130</v>
+      <c r="D69" s="32">
+        <v>5</v>
       </c>
       <c r="E69" s="32">
         <v>1</v>
